--- a/excel_files/case_new_risk.xlsx
+++ b/excel_files/case_new_risk.xlsx
@@ -22,7 +22,7 @@
     <t>riskLevel</t>
   </si>
   <si>
-    <t>case_count</t>
+    <t>cases_created</t>
   </si>
   <si>
     <t>last_updated</t>

--- a/excel_files/case_new_risk.xlsx
+++ b/excel_files/case_new_risk.xlsx
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">

--- a/excel_files/case_new_risk.xlsx
+++ b/excel_files/case_new_risk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +415,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -426,18 +426,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45292</v>
+        <v>44958</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -459,29 +459,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -492,40 +492,40 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45323</v>
+        <v>44986</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45017</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -547,29 +547,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -580,18 +580,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45383</v>
+        <v>45047</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -602,29 +602,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45413</v>
+        <v>45078</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -646,18 +646,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45444</v>
+        <v>45108</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -690,18 +690,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45474</v>
+        <v>45139</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -734,18 +734,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -778,18 +778,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45536</v>
+        <v>45200</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45566</v>
+        <v>45231</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45597</v>
+        <v>45261</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -932,12 +932,364 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45413</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45444</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45474</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45505</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
         <v>0</v>
       </c>
     </row>
